--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_199.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_199.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,644 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3088235294117647</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4869565217391305</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(50.730362, 54.666145)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(58.08, 69.44)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:14.450219', '0:00:23.088042')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_21</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_77</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08865489130434782</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:7', 'C', 'C/b7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[['G:7', 'C', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:34.041000', '0:00:38.588000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:04.070000', '0:00:07.470000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2305986696230599</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(42.52, 46.36)]</t>
+          <t>[['C:7', 'F', 'F', 'C:7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(14.0, 16.38)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:07.020000', '0:00:15.100000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:49.610000', '0:00:56.990000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
+          <t>[['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(111.28, 124.16)]</t>
+          <t>[['A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(38.9, 47.16)]</t>
+          <t>[('0:00:01.880000', '0:00:06.560000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:12.824000', '0:00:20.865000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1480769230769231</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2708333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(37.936167, 42.951678)]</t>
+          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:02.020000', '0:01:11.860000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3431372549019608</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'B', 'A', 'E', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D', 'C', 'G', 'G']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(54.729, 81.235)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(59.224321, 70.753028)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_43</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1101190476190476</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'A/2', 'A/b3', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3365853658536585</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb', 'Eb']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(62.891179, 66.21244)]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(40.59, 46.47)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:02.530000', '0:01:06.230000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.111969111969112</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj', 'D#:maj', 'D#:7']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(50.0, 56.61), (19.08, 27.81)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(64.58, 73.88), (66.26, 77.22)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:02.460000', '0:00:17.160000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:09.840000', '0:01:21.680000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(46.75, 47.53)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(66.92, 68.18)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_24</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_73</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0258117431369711</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Bb:min7', 'Bb:min7', 'Bb:min7', 'Bb:min7']]</t>
-        </is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Bb:min7', 'Bb:min7', 'Bb:min7']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(2.87, 7.18)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(263.24, 267.96)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(36.82, 47.63)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(63.1, 64.32)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1702898550724637</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:maj', 'F:maj'], ['F:maj/A', 'C:7', 'F:maj', 'C:maj']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.84, 10.04), (7.28, 9.48)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(40.34, 43.3), (39.26, 42.74)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_74</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07666666666666666</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['F:7', 'Bb:7', 'Eb']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929), (18.783807, 24.845034)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(18.07, 19.25), (4.83, 7.28)]</t>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_4</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08459016393442623</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min7', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab/3']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(40.64, 47.33)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(24.46, 30.01)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:05.440000', '0:01:06.820000'), ('0:01:03.600000', '0:01:06.040000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.400000', '0:00:09.040000'), ('0:00:55.180000', '0:01:02.060000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(212.26, 222.96)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(79.04, 91.18)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_15</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.419047619047619</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C', 'G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(40.49, 50.26)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(70.203514, 92.97068)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
